--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T12:19:57+00:00</t>
+    <t>2024-03-25T15:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -594,10 +594,10 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Consent.category:privacy</t>
-  </si>
-  <si>
-    <t>privacy</t>
+    <t>Consent.category:information-access</t>
+  </si>
+  <si>
+    <t>information-access</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1150,11 +1150,7 @@
     <t>Consent.verification.verifiedWith</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Person who verified</t>
+    <t>Patient (if consent-based) or RelatedPerson.relationship (if based on a relationship)</t>
   </si>
   <si>
     <t>Who verified the instruction (Patient, Relative or other Authorized Person).</t>
@@ -1745,7 +1741,7 @@
   <cols>
     <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.26171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -8633,7 +8629,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>90</v>
@@ -8648,13 +8644,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8734,10 +8730,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8763,10 +8759,10 @@
         <v>285</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8817,7 +8813,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8846,10 +8842,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8875,10 +8871,10 @@
         <v>328</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8929,7 +8925,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -8958,10 +8954,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9070,10 +9066,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9184,10 +9180,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9300,10 +9296,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9329,10 +9325,10 @@
         <v>110</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9362,11 +9358,11 @@
         <v>161</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9383,7 +9379,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9412,10 +9408,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9441,10 +9437,10 @@
         <v>265</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9495,7 +9491,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9524,10 +9520,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9553,10 +9549,10 @@
         <v>328</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9564,7 +9560,7 @@
         <v>78</v>
       </c>
       <c r="Q69" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>78</v>
@@ -9609,7 +9605,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9638,10 +9634,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9750,10 +9746,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9864,10 +9860,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9980,10 +9976,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10009,10 +10005,10 @@
         <v>169</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10042,11 +10038,11 @@
         <v>172</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10063,7 +10059,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>90</v>
@@ -10092,10 +10088,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10118,13 +10114,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10175,7 +10171,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>90</v>
@@ -10204,10 +10200,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10233,48 +10229,48 @@
         <v>169</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q75" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10291,7 +10287,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10320,10 +10316,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10346,16 +10342,16 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10384,11 +10380,11 @@
         <v>172</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10405,7 +10401,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10434,10 +10430,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10460,16 +10456,16 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10498,11 +10494,11 @@
         <v>172</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10519,7 +10515,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10548,10 +10544,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10574,16 +10570,16 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10612,11 +10608,11 @@
         <v>172</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10633,7 +10629,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10662,10 +10658,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10691,13 +10687,13 @@
         <v>169</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10723,14 +10719,14 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
       </c>
@@ -10747,7 +10743,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -10776,10 +10772,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10805,13 +10801,13 @@
         <v>265</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10861,7 +10857,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -10890,10 +10886,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10919,10 +10915,10 @@
         <v>328</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10930,7 +10926,7 @@
         <v>78</v>
       </c>
       <c r="Q81" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>78</v>
@@ -10975,7 +10971,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11004,10 +11000,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11116,10 +11112,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11230,10 +11226,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11346,10 +11342,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11375,10 +11371,10 @@
         <v>110</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11408,11 +11404,11 @@
         <v>161</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11429,7 +11425,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>90</v>
@@ -11458,10 +11454,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11484,13 +11480,13 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11541,7 +11537,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>90</v>
@@ -11570,10 +11566,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11599,10 +11595,10 @@
         <v>81</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11653,7 +11649,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$102</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:09:50+00:00</t>
+    <t>2024-03-25T16:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -938,11 +941,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.nhs.uk/England/StructureDefinition/RelatedPerson)
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/England/StructureDefinition/RelatedPerson|https://fhir.nhs.uk/England/StructureDefinition/Practitioner)
 </t>
   </si>
   <si>
-    <t>Proxy NHS number</t>
+    <t>Proxy NHS number and GMP/GMC/SDS User ID if also verified by GP</t>
   </si>
   <si>
     <t>Either the Grantor, which is the entity responsible for granting the rights listed in a Consent Directive or the Grantee, which is the entity responsible for complying with the Consent Directive, including any obligations or limitations on authorizations and enforcement of prohibitions.</t>
@@ -1021,8 +1027,8 @@
     <t>Consent.source[x]</t>
   </si>
   <si>
-    <t>Attachment
-Reference(Consent|DocumentReference|Contract|QuestionnaireResponse)</t>
+    <t xml:space="preserve">Reference(Consent|DocumentReference|Contract|QuestionnaireResponse)
+</t>
   </si>
   <si>
     <t>Source from which this consent is taken</t>
@@ -1034,7 +1040,24 @@
     <t>The source can be contained inline (Attachment), referenced directly (Consent), referenced in a consent repository (DocumentReference), or simply by an identifier (Identifier), e.g. a CDA document id.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Field 19 Informational Material Supplied Indicator</t>
+  </si>
+  <si>
+    <t>Consent.source[x]:sourceReference</t>
+  </si>
+  <si>
+    <t>sourceReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(QuestionnaireResponse)
+</t>
   </si>
   <si>
     <t>Consent.policy</t>
@@ -1150,6 +1173,10 @@
     <t>Consent.verification.verifiedWith</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/England/StructureDefinition/RelatedPerson|https://fhir.nhs.uk/England/StructureDefinition/PatientPDS)
+</t>
+  </si>
+  <si>
     <t>Patient (if consent-based) or RelatedPerson.relationship (if based on a relationship)</t>
   </si>
   <si>
@@ -1254,6 +1281,48 @@
   </si>
   <si>
     <t>The resource that identifies the actor. To identify actors by type, use group to identify a set of actors by some property they share (e.g. 'admitting officers').</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.id</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.extension</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.reference</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.type</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier.id</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier.extension</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier.use</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier.type</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier.system</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier.value</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier.period</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Consent.provision.actor.reference.display</t>
   </si>
   <si>
     <t>Consent.provision.action</t>
@@ -1552,6 +1621,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1730,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1739,8 +1823,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
@@ -1749,7 +1833,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.75" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1902,7 +1986,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
@@ -2016,7 +2100,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2130,7 +2214,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -2242,7 +2326,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>103</v>
       </c>
@@ -2356,7 +2440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2470,7 +2554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -2584,7 +2668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>126</v>
       </c>
@@ -2698,7 +2782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>134</v>
       </c>
@@ -2812,7 +2896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -2928,7 +3012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>147</v>
       </c>
@@ -3042,7 +3126,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -3158,7 +3242,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>168</v>
       </c>
@@ -3270,7 +3354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3380,7 +3464,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>186</v>
       </c>
@@ -3494,7 +3578,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>189</v>
       </c>
@@ -3608,7 +3692,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>197</v>
       </c>
@@ -3720,7 +3804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>203</v>
       </c>
@@ -3834,7 +3918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>208</v>
       </c>
@@ -3948,7 +4032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>214</v>
       </c>
@@ -4062,7 +4146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>221</v>
       </c>
@@ -4176,7 +4260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>227</v>
       </c>
@@ -4288,7 +4372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>228</v>
       </c>
@@ -4402,7 +4486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>229</v>
       </c>
@@ -4518,7 +4602,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>238</v>
       </c>
@@ -4634,7 +4718,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>247</v>
       </c>
@@ -4750,7 +4834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>256</v>
       </c>
@@ -4864,7 +4948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>264</v>
       </c>
@@ -4976,7 +5060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>271</v>
       </c>
@@ -5090,7 +5174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>279</v>
       </c>
@@ -5204,7 +5288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>284</v>
       </c>
@@ -5318,7 +5402,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>293</v>
       </c>
@@ -5334,7 +5418,7 @@
         <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5346,16 +5430,16 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5420,24 +5504,24 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5544,12 +5628,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5658,12 +5742,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5772,12 +5856,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5886,12 +5970,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6000,12 +6084,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6112,12 +6196,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6226,12 +6310,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6342,12 +6426,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6458,12 +6542,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6574,12 +6658,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6688,12 +6772,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6800,12 +6884,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6914,12 +6998,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7028,16 +7112,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7059,10 +7143,10 @@
         <v>272</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7113,7 +7197,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7128,7 +7212,7 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7137,15 +7221,15 @@
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7153,7 +7237,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -7168,16 +7252,16 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7215,19 +7299,17 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7245,7 +7327,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7254,23 +7336,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7279,18 +7363,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7339,13 +7425,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7357,7 +7443,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7366,12 +7452,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7382,7 +7468,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7394,13 +7480,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>199</v>
+        <v>335</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7451,19 +7537,19 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>201</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7472,29 +7558,29 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7506,17 +7592,15 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7565,19 +7649,19 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7592,16 +7676,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7614,26 +7698,24 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O52" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7681,7 +7763,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7702,50 +7784,54 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7793,19 +7879,19 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7814,18 +7900,18 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7851,14 +7937,12 @@
         <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7907,7 +7991,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7916,7 +8000,7 @@
         <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>102</v>
@@ -7934,12 +8018,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7959,23 +8043,21 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -7999,13 +8081,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8023,7 +8105,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8032,7 +8114,7 @@
         <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>102</v>
@@ -8050,12 +8132,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8066,7 +8148,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8078,16 +8160,20 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>328</v>
+        <v>169</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8111,13 +8197,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8135,16 +8221,16 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>102</v>
@@ -8162,12 +8248,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8178,7 +8264,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8187,16 +8273,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>199</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8247,19 +8333,19 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8268,29 +8354,29 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8302,17 +8388,15 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8361,19 +8445,19 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8388,16 +8472,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8410,26 +8494,24 @@
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8477,7 +8559,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8498,50 +8580,54 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>359</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8589,19 +8675,19 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -8610,18 +8696,18 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8641,16 +8727,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8701,10 +8787,10 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>90</v>
@@ -8728,12 +8814,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8741,7 +8827,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
@@ -8756,13 +8842,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8813,7 +8899,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8840,12 +8926,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8865,16 +8951,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8925,7 +9011,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -8952,12 +9038,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8965,7 +9051,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>90</v>
@@ -8977,16 +9063,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>199</v>
+        <v>376</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>200</v>
+        <v>377</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9037,7 +9123,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>201</v>
+        <v>375</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9049,7 +9135,7 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9058,29 +9144,29 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9092,17 +9178,15 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9151,19 +9235,19 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9178,16 +9262,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9200,26 +9284,24 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O66" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9267,7 +9349,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9288,50 +9370,54 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9355,13 +9441,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9379,19 +9465,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9400,18 +9486,18 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9425,7 +9511,7 @@
         <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>78</v>
@@ -9434,13 +9520,13 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9467,13 +9553,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9491,7 +9577,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9518,12 +9604,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9534,7 +9620,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9543,25 +9629,23 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9605,13 +9689,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -9632,12 +9716,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9645,7 +9729,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>90</v>
@@ -9660,20 +9744,22 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>199</v>
+        <v>390</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>200</v>
+        <v>391</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="R70" t="s" s="2">
         <v>78</v>
       </c>
@@ -9717,19 +9803,19 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>201</v>
+        <v>389</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -9738,29 +9824,29 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9772,17 +9858,15 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -9831,19 +9915,19 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -9858,16 +9942,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9880,26 +9964,24 @@
         <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O72" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -9947,7 +10029,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -9968,50 +10050,54 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10035,13 +10121,13 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>78</v>
@@ -10059,19 +10145,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10080,18 +10166,18 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10114,13 +10200,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>395</v>
+        <v>169</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10147,13 +10233,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10171,7 +10257,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>90</v>
@@ -10198,12 +10284,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10211,10 +10297,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10223,27 +10309,23 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>169</v>
+        <v>402</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q75" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10263,13 +10345,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10287,13 +10369,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10314,12 +10396,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10330,7 +10412,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10339,20 +10421,18 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>408</v>
+        <v>199</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10377,13 +10457,13 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -10401,43 +10481,43 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="B77" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10453,19 +10533,19 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>407</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>414</v>
+        <v>137</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>415</v>
+        <v>204</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>416</v>
+        <v>139</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10491,31 +10571,31 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>413</v>
+        <v>207</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10527,7 +10607,7 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -10536,18 +10616,18 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10558,7 +10638,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10570,16 +10650,16 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>420</v>
+        <v>209</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>421</v>
+        <v>210</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10605,13 +10685,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10629,16 +10709,16 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>102</v>
@@ -10650,18 +10730,18 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10669,10 +10749,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -10684,16 +10764,16 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>427</v>
+        <v>216</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10719,13 +10799,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>403</v>
+        <v>172</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>429</v>
+        <v>218</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>430</v>
+        <v>219</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -10743,13 +10823,13 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
@@ -10764,18 +10844,18 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10783,7 +10863,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>90</v>
@@ -10798,16 +10878,16 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>434</v>
+        <v>224</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10857,7 +10937,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>431</v>
+        <v>225</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -10878,18 +10958,18 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10900,7 +10980,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -10909,25 +10989,23 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>328</v>
+        <v>198</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>436</v>
+        <v>199</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>437</v>
+        <v>200</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q81" t="s" s="2">
-        <v>438</v>
-      </c>
+      <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
         <v>78</v>
       </c>
@@ -10971,19 +11049,19 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>435</v>
+        <v>201</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -10992,29 +11070,29 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11026,15 +11104,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11071,31 +11151,31 @@
         <v>78</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11110,46 +11190,48 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11173,13 +11255,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11197,74 +11279,74 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11289,13 +11371,13 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11313,39 +11395,39 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>337</v>
+        <v>245</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11368,16 +11450,20 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>443</v>
+        <v>248</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11389,7 +11475,7 @@
         <v>78</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>78</v>
@@ -11401,13 +11487,13 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>78</v>
@@ -11425,10 +11511,10 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>90</v>
@@ -11443,21 +11529,21 @@
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11480,15 +11566,17 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>448</v>
+        <v>198</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>449</v>
+        <v>257</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -11501,7 +11589,7 @@
         <v>78</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>78</v>
@@ -11537,10 +11625,10 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>447</v>
+        <v>261</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>90</v>
@@ -11555,21 +11643,21 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11580,7 +11668,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -11589,16 +11677,16 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>452</v>
+        <v>266</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>453</v>
+        <v>267</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11649,13 +11737,13 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>451</v>
+        <v>268</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
@@ -11667,16 +11755,1740 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q96" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN102">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI101">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:04:49+00:00</t>
+    <t>2024-03-26T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1823,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.75" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,26 +1842,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.8046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T07:33:19+00:00</t>
+    <t>2024-03-26T12:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1823,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.30859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="121.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.75" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,26 +1842,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="121.8046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T12:37:11+00:00</t>
+    <t>2024-03-26T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:28:58+00:00</t>
+    <t>2024-03-26T14:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:52:36+00:00</t>
+    <t>2024-03-27T10:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T10:43:47+00:00</t>
+    <t>2024-03-27T12:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T12:02:55+00:00</t>
+    <t>2024-03-28T06:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1823,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.75" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,26 +1842,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.8046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T06:59:04+00:00</t>
+    <t>2024-03-28T07:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T07:27:12+00:00</t>
+    <t>2024-03-28T15:35:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:35:10+00:00</t>
+    <t>2024-04-04T07:58:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T07:58:12+01:00</t>
+    <t>2024-04-09T11:34:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1823,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.30859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="121.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.75" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,26 +1842,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="121.8046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T11:34:38+01:00</t>
+    <t>2024-04-09T14:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T14:59:55+01:00</t>
+    <t>2024-04-12T08:32:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1823,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.75" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,26 +1842,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.8046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T08:32:19+01:00</t>
+    <t>2024-04-12T10:30:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1823,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.30859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="121.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.75" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,26 +1842,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="121.8046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T10:30:08+01:00</t>
+    <t>2024-04-12T11:43:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:43:38+01:00</t>
+    <t>2024-04-15T10:54:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T10:54:06+01:00</t>
+    <t>2024-04-19T04:03:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1823,17 +1823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.75" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1842,26 +1842,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.01953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="121.8046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="121.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T04:03:07+01:00</t>
+    <t>2024-04-23T08:00:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ConsentNationalProxy.xlsx
+++ b/docs/StructureDefinition-ConsentNationalProxy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T08:00:23+01:00</t>
+    <t>2024-04-24T08:46:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
